--- a/AverTest/test_NDISRate/Executiondir/Execution.xlsx
+++ b/AverTest/test_NDISRate/Executiondir/Execution.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A2"/>
@@ -412,12 +412,18 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_NDISRateWorking</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
     </row>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
